--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_211.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_211.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32215-d77198-Reviews-DoubleTree_by_Hilton_Hotel_Claremont-Claremont_California.html</t>
+  </si>
+  <si>
+    <t>1051</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1060</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-DoubleTree-By-Hilton-Claremont.h41585.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_211.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_211.xlsx
@@ -13843,7 +13843,7 @@
         <v>11500</v>
       </c>
       <c r="B2" t="n">
-        <v>138701</v>
+        <v>169797</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
@@ -14056,7 +14056,7 @@
         <v>11500</v>
       </c>
       <c r="B5" t="n">
-        <v>138702</v>
+        <v>169798</v>
       </c>
       <c r="C5" t="s">
         <v>73</v>
@@ -14127,7 +14127,7 @@
         <v>11500</v>
       </c>
       <c r="B6" t="n">
-        <v>138703</v>
+        <v>169799</v>
       </c>
       <c r="C6" t="s">
         <v>79</v>
@@ -14263,7 +14263,7 @@
         <v>11500</v>
       </c>
       <c r="B8" t="n">
-        <v>138704</v>
+        <v>169800</v>
       </c>
       <c r="C8" t="s">
         <v>95</v>
@@ -14334,7 +14334,7 @@
         <v>11500</v>
       </c>
       <c r="B9" t="n">
-        <v>138705</v>
+        <v>169801</v>
       </c>
       <c r="C9" t="s">
         <v>101</v>
@@ -14405,7 +14405,7 @@
         <v>11500</v>
       </c>
       <c r="B10" t="n">
-        <v>138706</v>
+        <v>169802</v>
       </c>
       <c r="C10" t="s">
         <v>108</v>
@@ -14547,7 +14547,7 @@
         <v>11500</v>
       </c>
       <c r="B12" t="n">
-        <v>138707</v>
+        <v>169803</v>
       </c>
       <c r="C12" t="s">
         <v>123</v>
@@ -14608,7 +14608,7 @@
         <v>11500</v>
       </c>
       <c r="B13" t="n">
-        <v>138708</v>
+        <v>169804</v>
       </c>
       <c r="C13" t="s">
         <v>130</v>
@@ -14675,7 +14675,7 @@
         <v>11500</v>
       </c>
       <c r="B14" t="n">
-        <v>138709</v>
+        <v>169805</v>
       </c>
       <c r="C14" t="s">
         <v>137</v>
@@ -14746,7 +14746,7 @@
         <v>11500</v>
       </c>
       <c r="B15" t="n">
-        <v>138710</v>
+        <v>169806</v>
       </c>
       <c r="C15" t="s">
         <v>143</v>
@@ -14868,7 +14868,7 @@
         <v>11500</v>
       </c>
       <c r="B17" t="n">
-        <v>138711</v>
+        <v>169807</v>
       </c>
       <c r="C17" t="s">
         <v>157</v>
@@ -14935,7 +14935,7 @@
         <v>11500</v>
       </c>
       <c r="B18" t="n">
-        <v>138712</v>
+        <v>169808</v>
       </c>
       <c r="C18" t="s">
         <v>164</v>
@@ -15006,7 +15006,7 @@
         <v>11500</v>
       </c>
       <c r="B19" t="n">
-        <v>138713</v>
+        <v>169809</v>
       </c>
       <c r="C19" t="s">
         <v>171</v>
@@ -15077,7 +15077,7 @@
         <v>11500</v>
       </c>
       <c r="B20" t="n">
-        <v>138714</v>
+        <v>169810</v>
       </c>
       <c r="C20" t="s">
         <v>177</v>
@@ -15138,7 +15138,7 @@
         <v>11500</v>
       </c>
       <c r="B21" t="n">
-        <v>138715</v>
+        <v>169811</v>
       </c>
       <c r="C21" t="s">
         <v>183</v>
@@ -15280,7 +15280,7 @@
         <v>11500</v>
       </c>
       <c r="B23" t="n">
-        <v>138716</v>
+        <v>169812</v>
       </c>
       <c r="C23" t="s">
         <v>197</v>
@@ -15422,7 +15422,7 @@
         <v>11500</v>
       </c>
       <c r="B25" t="n">
-        <v>138717</v>
+        <v>169813</v>
       </c>
       <c r="C25" t="s">
         <v>210</v>
@@ -15493,7 +15493,7 @@
         <v>11500</v>
       </c>
       <c r="B26" t="n">
-        <v>138718</v>
+        <v>169814</v>
       </c>
       <c r="C26" t="s">
         <v>216</v>
@@ -15564,7 +15564,7 @@
         <v>11500</v>
       </c>
       <c r="B27" t="n">
-        <v>138719</v>
+        <v>169815</v>
       </c>
       <c r="C27" t="s">
         <v>223</v>
@@ -15696,7 +15696,7 @@
         <v>11500</v>
       </c>
       <c r="B29" t="n">
-        <v>138720</v>
+        <v>169816</v>
       </c>
       <c r="C29" t="s">
         <v>234</v>
@@ -15767,7 +15767,7 @@
         <v>11500</v>
       </c>
       <c r="B30" t="n">
-        <v>138721</v>
+        <v>169817</v>
       </c>
       <c r="C30" t="s">
         <v>240</v>
@@ -15842,7 +15842,7 @@
         <v>11500</v>
       </c>
       <c r="B31" t="n">
-        <v>138722</v>
+        <v>169818</v>
       </c>
       <c r="C31" t="s">
         <v>249</v>
@@ -15917,7 +15917,7 @@
         <v>11500</v>
       </c>
       <c r="B32" t="n">
-        <v>138723</v>
+        <v>169819</v>
       </c>
       <c r="C32" t="s">
         <v>256</v>
@@ -15978,7 +15978,7 @@
         <v>11500</v>
       </c>
       <c r="B33" t="n">
-        <v>138724</v>
+        <v>169820</v>
       </c>
       <c r="C33" t="s">
         <v>262</v>
@@ -16049,7 +16049,7 @@
         <v>11500</v>
       </c>
       <c r="B34" t="n">
-        <v>138725</v>
+        <v>169821</v>
       </c>
       <c r="C34" t="s">
         <v>268</v>
@@ -16106,7 +16106,7 @@
         <v>11500</v>
       </c>
       <c r="B35" t="n">
-        <v>138726</v>
+        <v>169822</v>
       </c>
       <c r="C35" t="s">
         <v>275</v>
@@ -16171,7 +16171,7 @@
         <v>11500</v>
       </c>
       <c r="B36" t="n">
-        <v>138727</v>
+        <v>169823</v>
       </c>
       <c r="C36" t="s">
         <v>283</v>
@@ -16242,7 +16242,7 @@
         <v>11500</v>
       </c>
       <c r="B37" t="n">
-        <v>138728</v>
+        <v>169824</v>
       </c>
       <c r="C37" t="s">
         <v>289</v>
@@ -16307,7 +16307,7 @@
         <v>11500</v>
       </c>
       <c r="B38" t="n">
-        <v>138729</v>
+        <v>169825</v>
       </c>
       <c r="C38" t="s">
         <v>296</v>
@@ -16449,7 +16449,7 @@
         <v>11500</v>
       </c>
       <c r="B40" t="n">
-        <v>138730</v>
+        <v>169826</v>
       </c>
       <c r="C40" t="s">
         <v>308</v>
@@ -16520,7 +16520,7 @@
         <v>11500</v>
       </c>
       <c r="B41" t="n">
-        <v>138731</v>
+        <v>169827</v>
       </c>
       <c r="C41" t="s">
         <v>313</v>
@@ -16591,7 +16591,7 @@
         <v>11500</v>
       </c>
       <c r="B42" t="n">
-        <v>138732</v>
+        <v>169828</v>
       </c>
       <c r="C42" t="s">
         <v>320</v>
@@ -16662,7 +16662,7 @@
         <v>11500</v>
       </c>
       <c r="B43" t="n">
-        <v>138733</v>
+        <v>169829</v>
       </c>
       <c r="C43" t="s">
         <v>326</v>
@@ -16723,7 +16723,7 @@
         <v>11500</v>
       </c>
       <c r="B44" t="n">
-        <v>138734</v>
+        <v>169830</v>
       </c>
       <c r="C44" t="s">
         <v>333</v>
@@ -16784,7 +16784,7 @@
         <v>11500</v>
       </c>
       <c r="B45" t="n">
-        <v>138735</v>
+        <v>169831</v>
       </c>
       <c r="C45" t="s">
         <v>339</v>
@@ -16977,7 +16977,7 @@
         <v>11500</v>
       </c>
       <c r="B48" t="n">
-        <v>138736</v>
+        <v>169832</v>
       </c>
       <c r="C48" t="s">
         <v>358</v>
@@ -17048,7 +17048,7 @@
         <v>11500</v>
       </c>
       <c r="B49" t="n">
-        <v>138737</v>
+        <v>169833</v>
       </c>
       <c r="C49" t="s">
         <v>364</v>
@@ -17186,7 +17186,7 @@
         <v>11500</v>
       </c>
       <c r="B51" t="n">
-        <v>138738</v>
+        <v>169834</v>
       </c>
       <c r="C51" t="s">
         <v>377</v>
@@ -17318,7 +17318,7 @@
         <v>11500</v>
       </c>
       <c r="B53" t="n">
-        <v>138739</v>
+        <v>169835</v>
       </c>
       <c r="C53" t="s">
         <v>390</v>
@@ -17454,7 +17454,7 @@
         <v>11500</v>
       </c>
       <c r="B55" t="n">
-        <v>138740</v>
+        <v>169836</v>
       </c>
       <c r="C55" t="s">
         <v>403</v>
@@ -17525,7 +17525,7 @@
         <v>11500</v>
       </c>
       <c r="B56" t="n">
-        <v>138741</v>
+        <v>169837</v>
       </c>
       <c r="C56" t="s">
         <v>408</v>
@@ -17586,7 +17586,7 @@
         <v>11500</v>
       </c>
       <c r="B57" t="n">
-        <v>138742</v>
+        <v>169838</v>
       </c>
       <c r="C57" t="s">
         <v>414</v>
@@ -17653,7 +17653,7 @@
         <v>11500</v>
       </c>
       <c r="B58" t="n">
-        <v>138743</v>
+        <v>169839</v>
       </c>
       <c r="C58" t="s">
         <v>420</v>
@@ -17724,7 +17724,7 @@
         <v>11500</v>
       </c>
       <c r="B59" t="n">
-        <v>138744</v>
+        <v>169840</v>
       </c>
       <c r="C59" t="s">
         <v>427</v>
@@ -17795,7 +17795,7 @@
         <v>11500</v>
       </c>
       <c r="B60" t="n">
-        <v>138745</v>
+        <v>169841</v>
       </c>
       <c r="C60" t="s">
         <v>433</v>
@@ -17866,7 +17866,7 @@
         <v>11500</v>
       </c>
       <c r="B61" t="n">
-        <v>138746</v>
+        <v>169842</v>
       </c>
       <c r="C61" t="s">
         <v>439</v>
@@ -17937,7 +17937,7 @@
         <v>11500</v>
       </c>
       <c r="B62" t="n">
-        <v>138747</v>
+        <v>138726</v>
       </c>
       <c r="C62" t="s">
         <v>446</v>
@@ -18008,7 +18008,7 @@
         <v>11500</v>
       </c>
       <c r="B63" t="n">
-        <v>138748</v>
+        <v>169843</v>
       </c>
       <c r="C63" t="s">
         <v>452</v>
@@ -18140,7 +18140,7 @@
         <v>11500</v>
       </c>
       <c r="B65" t="n">
-        <v>138749</v>
+        <v>169844</v>
       </c>
       <c r="C65" t="s">
         <v>464</v>
@@ -18211,7 +18211,7 @@
         <v>11500</v>
       </c>
       <c r="B66" t="n">
-        <v>138750</v>
+        <v>169845</v>
       </c>
       <c r="C66" t="s">
         <v>470</v>
@@ -18353,7 +18353,7 @@
         <v>11500</v>
       </c>
       <c r="B68" t="n">
-        <v>138751</v>
+        <v>169846</v>
       </c>
       <c r="C68" t="s">
         <v>482</v>
@@ -18424,7 +18424,7 @@
         <v>11500</v>
       </c>
       <c r="B69" t="n">
-        <v>138752</v>
+        <v>169847</v>
       </c>
       <c r="C69" t="s">
         <v>488</v>
@@ -18487,7 +18487,7 @@
         <v>11500</v>
       </c>
       <c r="B70" t="n">
-        <v>138753</v>
+        <v>169848</v>
       </c>
       <c r="C70" t="s">
         <v>493</v>
@@ -18548,7 +18548,7 @@
         <v>11500</v>
       </c>
       <c r="B71" t="n">
-        <v>138754</v>
+        <v>169849</v>
       </c>
       <c r="C71" t="s">
         <v>499</v>
@@ -18619,7 +18619,7 @@
         <v>11500</v>
       </c>
       <c r="B72" t="n">
-        <v>138755</v>
+        <v>169850</v>
       </c>
       <c r="C72" t="s">
         <v>505</v>
@@ -18747,7 +18747,7 @@
         <v>11500</v>
       </c>
       <c r="B74" t="n">
-        <v>138756</v>
+        <v>169851</v>
       </c>
       <c r="C74" t="s">
         <v>516</v>
@@ -18875,7 +18875,7 @@
         <v>11500</v>
       </c>
       <c r="B76" t="n">
-        <v>138757</v>
+        <v>169852</v>
       </c>
       <c r="C76" t="s">
         <v>528</v>
@@ -18946,7 +18946,7 @@
         <v>11500</v>
       </c>
       <c r="B77" t="n">
-        <v>138758</v>
+        <v>169853</v>
       </c>
       <c r="C77" t="s">
         <v>534</v>
@@ -19017,7 +19017,7 @@
         <v>11500</v>
       </c>
       <c r="B78" t="n">
-        <v>138759</v>
+        <v>169854</v>
       </c>
       <c r="C78" t="s">
         <v>540</v>
@@ -19159,7 +19159,7 @@
         <v>11500</v>
       </c>
       <c r="B80" t="n">
-        <v>138760</v>
+        <v>169855</v>
       </c>
       <c r="C80" t="s">
         <v>552</v>
@@ -19230,7 +19230,7 @@
         <v>11500</v>
       </c>
       <c r="B81" t="n">
-        <v>138761</v>
+        <v>169856</v>
       </c>
       <c r="C81" t="s">
         <v>558</v>
@@ -19287,7 +19287,7 @@
         <v>11500</v>
       </c>
       <c r="B82" t="n">
-        <v>138762</v>
+        <v>169857</v>
       </c>
       <c r="C82" t="s">
         <v>565</v>
@@ -19358,7 +19358,7 @@
         <v>11500</v>
       </c>
       <c r="B83" t="n">
-        <v>138763</v>
+        <v>169858</v>
       </c>
       <c r="C83" t="s">
         <v>571</v>
@@ -19429,7 +19429,7 @@
         <v>11500</v>
       </c>
       <c r="B84" t="n">
-        <v>138764</v>
+        <v>169859</v>
       </c>
       <c r="C84" t="s">
         <v>577</v>
@@ -19500,7 +19500,7 @@
         <v>11500</v>
       </c>
       <c r="B85" t="n">
-        <v>138765</v>
+        <v>169860</v>
       </c>
       <c r="C85" t="s">
         <v>583</v>
@@ -19571,7 +19571,7 @@
         <v>11500</v>
       </c>
       <c r="B86" t="n">
-        <v>138766</v>
+        <v>169861</v>
       </c>
       <c r="C86" t="s">
         <v>590</v>
@@ -19638,7 +19638,7 @@
         <v>11500</v>
       </c>
       <c r="B87" t="n">
-        <v>138767</v>
+        <v>169862</v>
       </c>
       <c r="C87" t="s">
         <v>597</v>
@@ -19709,7 +19709,7 @@
         <v>11500</v>
       </c>
       <c r="B88" t="n">
-        <v>138768</v>
+        <v>169863</v>
       </c>
       <c r="C88" t="s">
         <v>603</v>
@@ -19780,7 +19780,7 @@
         <v>11500</v>
       </c>
       <c r="B89" t="n">
-        <v>138769</v>
+        <v>169864</v>
       </c>
       <c r="C89" t="s">
         <v>609</v>
@@ -19851,7 +19851,7 @@
         <v>11500</v>
       </c>
       <c r="B90" t="n">
-        <v>138770</v>
+        <v>169865</v>
       </c>
       <c r="C90" t="s">
         <v>615</v>
@@ -20050,7 +20050,7 @@
         <v>11500</v>
       </c>
       <c r="B93" t="n">
-        <v>138771</v>
+        <v>169866</v>
       </c>
       <c r="C93" t="s">
         <v>634</v>
@@ -20188,7 +20188,7 @@
         <v>11500</v>
       </c>
       <c r="B95" t="n">
-        <v>138772</v>
+        <v>169867</v>
       </c>
       <c r="C95" t="s">
         <v>645</v>
@@ -20255,7 +20255,7 @@
         <v>11500</v>
       </c>
       <c r="B96" t="n">
-        <v>138773</v>
+        <v>169868</v>
       </c>
       <c r="C96" t="s">
         <v>652</v>
@@ -20326,7 +20326,7 @@
         <v>11500</v>
       </c>
       <c r="B97" t="n">
-        <v>138774</v>
+        <v>169869</v>
       </c>
       <c r="C97" t="s">
         <v>658</v>
@@ -20468,7 +20468,7 @@
         <v>11500</v>
       </c>
       <c r="B99" t="n">
-        <v>138775</v>
+        <v>169870</v>
       </c>
       <c r="C99" t="s">
         <v>669</v>
@@ -20539,7 +20539,7 @@
         <v>11500</v>
       </c>
       <c r="B100" t="n">
-        <v>138776</v>
+        <v>169871</v>
       </c>
       <c r="C100" t="s">
         <v>675</v>
@@ -20610,7 +20610,7 @@
         <v>11500</v>
       </c>
       <c r="B101" t="n">
-        <v>138777</v>
+        <v>169872</v>
       </c>
       <c r="C101" t="s">
         <v>680</v>
@@ -20681,7 +20681,7 @@
         <v>11500</v>
       </c>
       <c r="B102" t="n">
-        <v>138778</v>
+        <v>169873</v>
       </c>
       <c r="C102" t="s">
         <v>687</v>
@@ -20752,7 +20752,7 @@
         <v>11500</v>
       </c>
       <c r="B103" t="n">
-        <v>138779</v>
+        <v>169874</v>
       </c>
       <c r="C103" t="s">
         <v>693</v>
@@ -20953,7 +20953,7 @@
         <v>11500</v>
       </c>
       <c r="B106" t="n">
-        <v>138780</v>
+        <v>169875</v>
       </c>
       <c r="C106" t="s">
         <v>711</v>
@@ -21024,7 +21024,7 @@
         <v>11500</v>
       </c>
       <c r="B107" t="n">
-        <v>138781</v>
+        <v>169876</v>
       </c>
       <c r="C107" t="s">
         <v>717</v>
@@ -21095,7 +21095,7 @@
         <v>11500</v>
       </c>
       <c r="B108" t="n">
-        <v>138782</v>
+        <v>169877</v>
       </c>
       <c r="C108" t="s">
         <v>723</v>
@@ -21233,7 +21233,7 @@
         <v>11500</v>
       </c>
       <c r="B110" t="n">
-        <v>138783</v>
+        <v>169878</v>
       </c>
       <c r="C110" t="s">
         <v>736</v>
@@ -21300,7 +21300,7 @@
         <v>11500</v>
       </c>
       <c r="B111" t="n">
-        <v>138784</v>
+        <v>169879</v>
       </c>
       <c r="C111" t="s">
         <v>743</v>
@@ -21365,7 +21365,7 @@
         <v>11500</v>
       </c>
       <c r="B112" t="n">
-        <v>138746</v>
+        <v>138726</v>
       </c>
       <c r="C112" t="s">
         <v>446</v>
@@ -21436,7 +21436,7 @@
         <v>11500</v>
       </c>
       <c r="B113" t="n">
-        <v>138785</v>
+        <v>169880</v>
       </c>
       <c r="C113" t="s">
         <v>754</v>
@@ -21576,7 +21576,7 @@
         <v>11500</v>
       </c>
       <c r="B115" t="n">
-        <v>138786</v>
+        <v>169881</v>
       </c>
       <c r="C115" t="s">
         <v>766</v>
@@ -21647,7 +21647,7 @@
         <v>11500</v>
       </c>
       <c r="B116" t="n">
-        <v>138787</v>
+        <v>169882</v>
       </c>
       <c r="C116" t="s">
         <v>772</v>
@@ -21718,7 +21718,7 @@
         <v>11500</v>
       </c>
       <c r="B117" t="n">
-        <v>138788</v>
+        <v>169883</v>
       </c>
       <c r="C117" t="s">
         <v>778</v>
@@ -21789,7 +21789,7 @@
         <v>11500</v>
       </c>
       <c r="B118" t="n">
-        <v>138789</v>
+        <v>169884</v>
       </c>
       <c r="C118" t="s">
         <v>784</v>
@@ -21860,7 +21860,7 @@
         <v>11500</v>
       </c>
       <c r="B119" t="n">
-        <v>138790</v>
+        <v>169885</v>
       </c>
       <c r="C119" t="s">
         <v>789</v>
@@ -21931,7 +21931,7 @@
         <v>11500</v>
       </c>
       <c r="B120" t="n">
-        <v>138791</v>
+        <v>169886</v>
       </c>
       <c r="C120" t="s">
         <v>794</v>
@@ -22073,7 +22073,7 @@
         <v>11500</v>
       </c>
       <c r="B122" t="n">
-        <v>138792</v>
+        <v>169887</v>
       </c>
       <c r="C122" t="s">
         <v>806</v>
@@ -22144,7 +22144,7 @@
         <v>11500</v>
       </c>
       <c r="B123" t="n">
-        <v>138793</v>
+        <v>169888</v>
       </c>
       <c r="C123" t="s">
         <v>813</v>
@@ -22209,7 +22209,7 @@
         <v>11500</v>
       </c>
       <c r="B124" t="n">
-        <v>138794</v>
+        <v>169889</v>
       </c>
       <c r="C124" t="s">
         <v>819</v>
@@ -22351,7 +22351,7 @@
         <v>11500</v>
       </c>
       <c r="B126" t="n">
-        <v>138795</v>
+        <v>169890</v>
       </c>
       <c r="C126" t="s">
         <v>830</v>
@@ -22422,7 +22422,7 @@
         <v>11500</v>
       </c>
       <c r="B127" t="n">
-        <v>138796</v>
+        <v>169891</v>
       </c>
       <c r="C127" t="s">
         <v>835</v>
@@ -22487,7 +22487,7 @@
         <v>11500</v>
       </c>
       <c r="B128" t="n">
-        <v>138797</v>
+        <v>169892</v>
       </c>
       <c r="C128" t="s">
         <v>844</v>
@@ -22552,7 +22552,7 @@
         <v>11500</v>
       </c>
       <c r="B129" t="n">
-        <v>138798</v>
+        <v>169893</v>
       </c>
       <c r="C129" t="s">
         <v>850</v>
@@ -22623,7 +22623,7 @@
         <v>11500</v>
       </c>
       <c r="B130" t="n">
-        <v>138799</v>
+        <v>169894</v>
       </c>
       <c r="C130" t="s">
         <v>854</v>
@@ -22694,7 +22694,7 @@
         <v>11500</v>
       </c>
       <c r="B131" t="n">
-        <v>138800</v>
+        <v>169895</v>
       </c>
       <c r="C131" t="s">
         <v>860</v>
@@ -22765,7 +22765,7 @@
         <v>11500</v>
       </c>
       <c r="B132" t="n">
-        <v>138801</v>
+        <v>169896</v>
       </c>
       <c r="C132" t="s">
         <v>867</v>
@@ -22836,7 +22836,7 @@
         <v>11500</v>
       </c>
       <c r="B133" t="n">
-        <v>138802</v>
+        <v>169897</v>
       </c>
       <c r="C133" t="s">
         <v>873</v>
@@ -22974,7 +22974,7 @@
         <v>11500</v>
       </c>
       <c r="B135" t="n">
-        <v>138803</v>
+        <v>169898</v>
       </c>
       <c r="C135" t="s">
         <v>886</v>
@@ -23045,7 +23045,7 @@
         <v>11500</v>
       </c>
       <c r="B136" t="n">
-        <v>138804</v>
+        <v>169899</v>
       </c>
       <c r="C136" t="s">
         <v>891</v>
@@ -23116,7 +23116,7 @@
         <v>11500</v>
       </c>
       <c r="B137" t="n">
-        <v>138805</v>
+        <v>169900</v>
       </c>
       <c r="C137" t="s">
         <v>897</v>
@@ -23187,7 +23187,7 @@
         <v>11500</v>
       </c>
       <c r="B138" t="n">
-        <v>138806</v>
+        <v>169901</v>
       </c>
       <c r="C138" t="s">
         <v>903</v>
@@ -23244,7 +23244,7 @@
         <v>11500</v>
       </c>
       <c r="B139" t="n">
-        <v>138807</v>
+        <v>138741</v>
       </c>
       <c r="C139" t="s">
         <v>910</v>
@@ -23376,7 +23376,7 @@
         <v>11500</v>
       </c>
       <c r="B141" t="n">
-        <v>138808</v>
+        <v>138782</v>
       </c>
       <c r="C141" t="s">
         <v>922</v>
@@ -23441,7 +23441,7 @@
         <v>11500</v>
       </c>
       <c r="B142" t="n">
-        <v>138809</v>
+        <v>169902</v>
       </c>
       <c r="C142" t="s">
         <v>929</v>
@@ -23711,7 +23711,7 @@
         <v>11500</v>
       </c>
       <c r="B146" t="n">
-        <v>138810</v>
+        <v>169903</v>
       </c>
       <c r="C146" t="s">
         <v>954</v>
@@ -23782,7 +23782,7 @@
         <v>11500</v>
       </c>
       <c r="B147" t="n">
-        <v>138811</v>
+        <v>169904</v>
       </c>
       <c r="C147" t="s">
         <v>960</v>
@@ -23853,7 +23853,7 @@
         <v>11500</v>
       </c>
       <c r="B148" t="n">
-        <v>138812</v>
+        <v>169905</v>
       </c>
       <c r="C148" t="s">
         <v>966</v>
@@ -23918,7 +23918,7 @@
         <v>11500</v>
       </c>
       <c r="B149" t="n">
-        <v>138813</v>
+        <v>169906</v>
       </c>
       <c r="C149" t="s">
         <v>972</v>
@@ -24064,7 +24064,7 @@
         <v>11500</v>
       </c>
       <c r="B151" t="n">
-        <v>138814</v>
+        <v>169907</v>
       </c>
       <c r="C151" t="s">
         <v>987</v>
@@ -24281,7 +24281,7 @@
         <v>11500</v>
       </c>
       <c r="B154" t="n">
-        <v>138815</v>
+        <v>169908</v>
       </c>
       <c r="C154" t="s">
         <v>1006</v>
@@ -24346,7 +24346,7 @@
         <v>11500</v>
       </c>
       <c r="B155" t="n">
-        <v>138816</v>
+        <v>169909</v>
       </c>
       <c r="C155" t="s">
         <v>1012</v>
@@ -24421,7 +24421,7 @@
         <v>11500</v>
       </c>
       <c r="B156" t="n">
-        <v>138817</v>
+        <v>169910</v>
       </c>
       <c r="C156" t="s">
         <v>1021</v>
@@ -24492,7 +24492,7 @@
         <v>11500</v>
       </c>
       <c r="B157" t="n">
-        <v>138818</v>
+        <v>169911</v>
       </c>
       <c r="C157" t="s">
         <v>1028</v>
@@ -24559,7 +24559,7 @@
         <v>11500</v>
       </c>
       <c r="B158" t="n">
-        <v>138819</v>
+        <v>169912</v>
       </c>
       <c r="C158" t="s">
         <v>1035</v>
@@ -24626,7 +24626,7 @@
         <v>11500</v>
       </c>
       <c r="B159" t="n">
-        <v>138820</v>
+        <v>169913</v>
       </c>
       <c r="C159" t="s">
         <v>1042</v>
@@ -24691,7 +24691,7 @@
         <v>11500</v>
       </c>
       <c r="B160" t="n">
-        <v>138821</v>
+        <v>169914</v>
       </c>
       <c r="C160" t="s">
         <v>1050</v>
@@ -24756,7 +24756,7 @@
         <v>11500</v>
       </c>
       <c r="B161" t="n">
-        <v>138822</v>
+        <v>169915</v>
       </c>
       <c r="C161" t="s">
         <v>1057</v>
@@ -24827,7 +24827,7 @@
         <v>11500</v>
       </c>
       <c r="B162" t="n">
-        <v>138823</v>
+        <v>169916</v>
       </c>
       <c r="C162" t="s">
         <v>1063</v>
@@ -24898,7 +24898,7 @@
         <v>11500</v>
       </c>
       <c r="B163" t="n">
-        <v>138824</v>
+        <v>169917</v>
       </c>
       <c r="C163" t="s">
         <v>1069</v>
@@ -24959,7 +24959,7 @@
         <v>11500</v>
       </c>
       <c r="B164" t="n">
-        <v>138825</v>
+        <v>169918</v>
       </c>
       <c r="C164" t="s">
         <v>1075</v>
@@ -25231,7 +25231,7 @@
         <v>11500</v>
       </c>
       <c r="B168" t="n">
-        <v>138806</v>
+        <v>138741</v>
       </c>
       <c r="C168" t="s">
         <v>910</v>
@@ -25298,7 +25298,7 @@
         <v>11500</v>
       </c>
       <c r="B169" t="n">
-        <v>138826</v>
+        <v>169919</v>
       </c>
       <c r="C169" t="s">
         <v>1107</v>
@@ -25562,7 +25562,7 @@
         <v>11500</v>
       </c>
       <c r="B173" t="n">
-        <v>138827</v>
+        <v>169920</v>
       </c>
       <c r="C173" t="s">
         <v>1132</v>
@@ -25704,7 +25704,7 @@
         <v>11500</v>
       </c>
       <c r="B175" t="n">
-        <v>138828</v>
+        <v>169921</v>
       </c>
       <c r="C175" t="s">
         <v>1144</v>
@@ -25775,7 +25775,7 @@
         <v>11500</v>
       </c>
       <c r="B176" t="n">
-        <v>138829</v>
+        <v>169922</v>
       </c>
       <c r="C176" t="s">
         <v>1150</v>
@@ -25842,7 +25842,7 @@
         <v>11500</v>
       </c>
       <c r="B177" t="n">
-        <v>138830</v>
+        <v>169923</v>
       </c>
       <c r="C177" t="s">
         <v>1156</v>
@@ -25913,7 +25913,7 @@
         <v>11500</v>
       </c>
       <c r="B178" t="n">
-        <v>138831</v>
+        <v>169924</v>
       </c>
       <c r="C178" t="s">
         <v>1162</v>
@@ -26126,7 +26126,7 @@
         <v>11500</v>
       </c>
       <c r="B181" t="n">
-        <v>138832</v>
+        <v>169925</v>
       </c>
       <c r="C181" t="s">
         <v>1180</v>
@@ -26197,7 +26197,7 @@
         <v>11500</v>
       </c>
       <c r="B182" t="n">
-        <v>138833</v>
+        <v>169926</v>
       </c>
       <c r="C182" t="s">
         <v>1186</v>
@@ -26335,7 +26335,7 @@
         <v>11500</v>
       </c>
       <c r="B184" t="n">
-        <v>138834</v>
+        <v>169927</v>
       </c>
       <c r="C184" t="s">
         <v>1199</v>
@@ -26619,7 +26619,7 @@
         <v>11500</v>
       </c>
       <c r="B188" t="n">
-        <v>138835</v>
+        <v>169928</v>
       </c>
       <c r="C188" t="s">
         <v>1221</v>
@@ -26761,7 +26761,7 @@
         <v>11500</v>
       </c>
       <c r="B190" t="n">
-        <v>138836</v>
+        <v>169929</v>
       </c>
       <c r="C190" t="s">
         <v>1232</v>
@@ -26832,7 +26832,7 @@
         <v>11500</v>
       </c>
       <c r="B191" t="n">
-        <v>138837</v>
+        <v>169930</v>
       </c>
       <c r="C191" t="s">
         <v>1238</v>
@@ -26970,7 +26970,7 @@
         <v>11500</v>
       </c>
       <c r="B193" t="n">
-        <v>138838</v>
+        <v>169931</v>
       </c>
       <c r="C193" t="s">
         <v>1250</v>
@@ -27045,7 +27045,7 @@
         <v>11500</v>
       </c>
       <c r="B194" t="n">
-        <v>138839</v>
+        <v>169932</v>
       </c>
       <c r="C194" t="s">
         <v>1259</v>
@@ -27187,7 +27187,7 @@
         <v>11500</v>
       </c>
       <c r="B196" t="n">
-        <v>138840</v>
+        <v>169933</v>
       </c>
       <c r="C196" t="s">
         <v>1274</v>
@@ -27333,7 +27333,7 @@
         <v>11500</v>
       </c>
       <c r="B198" t="n">
-        <v>138841</v>
+        <v>169934</v>
       </c>
       <c r="C198" t="s">
         <v>1289</v>
@@ -27471,7 +27471,7 @@
         <v>11500</v>
       </c>
       <c r="B200" t="n">
-        <v>138842</v>
+        <v>169935</v>
       </c>
       <c r="C200" t="s">
         <v>1301</v>
@@ -27542,7 +27542,7 @@
         <v>11500</v>
       </c>
       <c r="B201" t="n">
-        <v>138843</v>
+        <v>169936</v>
       </c>
       <c r="C201" t="s">
         <v>1307</v>
@@ -27749,7 +27749,7 @@
         <v>11500</v>
       </c>
       <c r="B204" t="n">
-        <v>138844</v>
+        <v>169937</v>
       </c>
       <c r="C204" t="s">
         <v>1325</v>
@@ -27820,7 +27820,7 @@
         <v>11500</v>
       </c>
       <c r="B205" t="n">
-        <v>138845</v>
+        <v>169938</v>
       </c>
       <c r="C205" t="s">
         <v>1330</v>
@@ -27885,7 +27885,7 @@
         <v>11500</v>
       </c>
       <c r="B206" t="n">
-        <v>138846</v>
+        <v>169939</v>
       </c>
       <c r="C206" t="s">
         <v>1336</v>
@@ -28096,7 +28096,7 @@
         <v>11500</v>
       </c>
       <c r="B209" t="n">
-        <v>138847</v>
+        <v>169940</v>
       </c>
       <c r="C209" t="s">
         <v>1358</v>
@@ -28234,7 +28234,7 @@
         <v>11500</v>
       </c>
       <c r="B211" t="n">
-        <v>138848</v>
+        <v>169941</v>
       </c>
       <c r="C211" t="s">
         <v>1371</v>
@@ -28520,7 +28520,7 @@
         <v>11500</v>
       </c>
       <c r="B215" t="n">
-        <v>138849</v>
+        <v>169942</v>
       </c>
       <c r="C215" t="s">
         <v>1394</v>
@@ -28591,7 +28591,7 @@
         <v>11500</v>
       </c>
       <c r="B216" t="n">
-        <v>138850</v>
+        <v>169943</v>
       </c>
       <c r="C216" t="s">
         <v>1400</v>
@@ -28662,7 +28662,7 @@
         <v>11500</v>
       </c>
       <c r="B217" t="n">
-        <v>138851</v>
+        <v>169944</v>
       </c>
       <c r="C217" t="s">
         <v>1406</v>
@@ -28802,7 +28802,7 @@
         <v>11500</v>
       </c>
       <c r="B219" t="n">
-        <v>138852</v>
+        <v>169945</v>
       </c>
       <c r="C219" t="s">
         <v>1421</v>
@@ -28944,7 +28944,7 @@
         <v>11500</v>
       </c>
       <c r="B221" t="n">
-        <v>138853</v>
+        <v>169946</v>
       </c>
       <c r="C221" t="s">
         <v>1433</v>
@@ -29015,7 +29015,7 @@
         <v>11500</v>
       </c>
       <c r="B222" t="n">
-        <v>138854</v>
+        <v>169947</v>
       </c>
       <c r="C222" t="s">
         <v>1440</v>
@@ -29153,7 +29153,7 @@
         <v>11500</v>
       </c>
       <c r="B224" t="n">
-        <v>138855</v>
+        <v>169948</v>
       </c>
       <c r="C224" t="s">
         <v>1452</v>
@@ -29291,7 +29291,7 @@
         <v>11500</v>
       </c>
       <c r="B226" t="n">
-        <v>138856</v>
+        <v>169949</v>
       </c>
       <c r="C226" t="s">
         <v>1464</v>
@@ -29358,7 +29358,7 @@
         <v>11500</v>
       </c>
       <c r="B227" t="n">
-        <v>138857</v>
+        <v>169950</v>
       </c>
       <c r="C227" t="s">
         <v>1470</v>
@@ -29429,7 +29429,7 @@
         <v>11500</v>
       </c>
       <c r="B228" t="n">
-        <v>138858</v>
+        <v>169951</v>
       </c>
       <c r="C228" t="s">
         <v>1476</v>
@@ -29500,7 +29500,7 @@
         <v>11500</v>
       </c>
       <c r="B229" t="n">
-        <v>138859</v>
+        <v>169952</v>
       </c>
       <c r="C229" t="s">
         <v>1482</v>
@@ -29642,7 +29642,7 @@
         <v>11500</v>
       </c>
       <c r="B231" t="n">
-        <v>138860</v>
+        <v>169953</v>
       </c>
       <c r="C231" t="s">
         <v>1494</v>
@@ -29713,7 +29713,7 @@
         <v>11500</v>
       </c>
       <c r="B232" t="n">
-        <v>138861</v>
+        <v>169954</v>
       </c>
       <c r="C232" t="s">
         <v>1500</v>
@@ -29934,7 +29934,7 @@
         <v>11500</v>
       </c>
       <c r="B235" t="n">
-        <v>138862</v>
+        <v>169955</v>
       </c>
       <c r="C235" t="s">
         <v>1524</v>
@@ -29999,7 +29999,7 @@
         <v>11500</v>
       </c>
       <c r="B236" t="n">
-        <v>138863</v>
+        <v>169956</v>
       </c>
       <c r="C236" t="s">
         <v>1531</v>
@@ -30070,7 +30070,7 @@
         <v>11500</v>
       </c>
       <c r="B237" t="n">
-        <v>138864</v>
+        <v>169957</v>
       </c>
       <c r="C237" t="s">
         <v>1537</v>
@@ -30135,7 +30135,7 @@
         <v>11500</v>
       </c>
       <c r="B238" t="n">
-        <v>138865</v>
+        <v>169958</v>
       </c>
       <c r="C238" t="s">
         <v>1546</v>
@@ -30206,7 +30206,7 @@
         <v>11500</v>
       </c>
       <c r="B239" t="n">
-        <v>138866</v>
+        <v>169959</v>
       </c>
       <c r="C239" t="s">
         <v>1553</v>
@@ -30277,7 +30277,7 @@
         <v>11500</v>
       </c>
       <c r="B240" t="n">
-        <v>138867</v>
+        <v>169960</v>
       </c>
       <c r="C240" t="s">
         <v>1563</v>
@@ -30622,7 +30622,7 @@
         <v>11500</v>
       </c>
       <c r="B245" t="n">
-        <v>138868</v>
+        <v>138776</v>
       </c>
       <c r="C245" t="s">
         <v>1594</v>
@@ -30689,7 +30689,7 @@
         <v>11500</v>
       </c>
       <c r="B246" t="n">
-        <v>138867</v>
+        <v>138776</v>
       </c>
       <c r="C246" t="s">
         <v>1594</v>
@@ -30760,7 +30760,7 @@
         <v>11500</v>
       </c>
       <c r="B247" t="n">
-        <v>138869</v>
+        <v>169961</v>
       </c>
       <c r="C247" t="s">
         <v>1606</v>
@@ -30827,7 +30827,7 @@
         <v>11500</v>
       </c>
       <c r="B248" t="n">
-        <v>138870</v>
+        <v>169962</v>
       </c>
       <c r="C248" t="s">
         <v>1613</v>
@@ -30898,7 +30898,7 @@
         <v>11500</v>
       </c>
       <c r="B249" t="n">
-        <v>138871</v>
+        <v>169963</v>
       </c>
       <c r="C249" t="s">
         <v>1619</v>
@@ -30963,7 +30963,7 @@
         <v>11500</v>
       </c>
       <c r="B250" t="n">
-        <v>138872</v>
+        <v>169964</v>
       </c>
       <c r="C250" t="s">
         <v>1626</v>
@@ -31034,7 +31034,7 @@
         <v>11500</v>
       </c>
       <c r="B251" t="n">
-        <v>138873</v>
+        <v>169965</v>
       </c>
       <c r="C251" t="s">
         <v>1631</v>
@@ -31109,7 +31109,7 @@
         <v>11500</v>
       </c>
       <c r="B252" t="n">
-        <v>138874</v>
+        <v>169966</v>
       </c>
       <c r="C252" t="s">
         <v>1641</v>
@@ -31393,7 +31393,7 @@
         <v>11500</v>
       </c>
       <c r="B256" t="n">
-        <v>138875</v>
+        <v>169967</v>
       </c>
       <c r="C256" t="s">
         <v>1669</v>
@@ -31458,7 +31458,7 @@
         <v>11500</v>
       </c>
       <c r="B257" t="n">
-        <v>138876</v>
+        <v>143709</v>
       </c>
       <c r="C257" t="s">
         <v>1676</v>
@@ -31519,7 +31519,7 @@
         <v>11500</v>
       </c>
       <c r="B258" t="n">
-        <v>138877</v>
+        <v>169968</v>
       </c>
       <c r="C258" t="s">
         <v>1683</v>
@@ -31584,7 +31584,7 @@
         <v>11500</v>
       </c>
       <c r="B259" t="n">
-        <v>138878</v>
+        <v>169969</v>
       </c>
       <c r="C259" t="s">
         <v>1690</v>
@@ -31795,7 +31795,7 @@
         <v>11500</v>
       </c>
       <c r="B262" t="n">
-        <v>138807</v>
+        <v>138782</v>
       </c>
       <c r="C262" t="s">
         <v>922</v>
@@ -32130,7 +32130,7 @@
         <v>11500</v>
       </c>
       <c r="B267" t="n">
-        <v>138879</v>
+        <v>169970</v>
       </c>
       <c r="C267" t="s">
         <v>1741</v>
@@ -32201,7 +32201,7 @@
         <v>11500</v>
       </c>
       <c r="B268" t="n">
-        <v>138880</v>
+        <v>169971</v>
       </c>
       <c r="C268" t="s">
         <v>1748</v>
@@ -32475,7 +32475,7 @@
         <v>11500</v>
       </c>
       <c r="B272" t="n">
-        <v>138881</v>
+        <v>169972</v>
       </c>
       <c r="C272" t="s">
         <v>1775</v>
@@ -32546,7 +32546,7 @@
         <v>11500</v>
       </c>
       <c r="B273" t="n">
-        <v>138882</v>
+        <v>169973</v>
       </c>
       <c r="C273" t="s">
         <v>1781</v>
@@ -32613,7 +32613,7 @@
         <v>11500</v>
       </c>
       <c r="B274" t="n">
-        <v>138883</v>
+        <v>169974</v>
       </c>
       <c r="C274" t="s">
         <v>1788</v>
@@ -32684,7 +32684,7 @@
         <v>11500</v>
       </c>
       <c r="B275" t="n">
-        <v>138884</v>
+        <v>169975</v>
       </c>
       <c r="C275" t="s">
         <v>1794</v>
@@ -32751,7 +32751,7 @@
         <v>11500</v>
       </c>
       <c r="B276" t="n">
-        <v>138885</v>
+        <v>169976</v>
       </c>
       <c r="C276" t="s">
         <v>1801</v>
@@ -32822,7 +32822,7 @@
         <v>11500</v>
       </c>
       <c r="B277" t="n">
-        <v>138886</v>
+        <v>169977</v>
       </c>
       <c r="C277" t="s">
         <v>1806</v>
@@ -32883,7 +32883,7 @@
         <v>11500</v>
       </c>
       <c r="B278" t="n">
-        <v>138887</v>
+        <v>169978</v>
       </c>
       <c r="C278" t="s">
         <v>1813</v>
@@ -32954,7 +32954,7 @@
         <v>11500</v>
       </c>
       <c r="B279" t="n">
-        <v>138888</v>
+        <v>169979</v>
       </c>
       <c r="C279" t="s">
         <v>1822</v>
@@ -33029,7 +33029,7 @@
         <v>11500</v>
       </c>
       <c r="B280" t="n">
-        <v>138889</v>
+        <v>169980</v>
       </c>
       <c r="C280" t="s">
         <v>1829</v>
@@ -33254,7 +33254,7 @@
         <v>11500</v>
       </c>
       <c r="B283" t="n">
-        <v>138890</v>
+        <v>169981</v>
       </c>
       <c r="C283" t="s">
         <v>1853</v>
@@ -33469,7 +33469,7 @@
         <v>11500</v>
       </c>
       <c r="B286" t="n">
-        <v>138891</v>
+        <v>169982</v>
       </c>
       <c r="C286" t="s">
         <v>1875</v>
@@ -33615,7 +33615,7 @@
         <v>11500</v>
       </c>
       <c r="B288" t="n">
-        <v>138892</v>
+        <v>169983</v>
       </c>
       <c r="C288" t="s">
         <v>1890</v>
@@ -33690,7 +33690,7 @@
         <v>11500</v>
       </c>
       <c r="B289" t="n">
-        <v>138893</v>
+        <v>169984</v>
       </c>
       <c r="C289" t="s">
         <v>1899</v>
@@ -33840,7 +33840,7 @@
         <v>11500</v>
       </c>
       <c r="B291" t="n">
-        <v>138894</v>
+        <v>169985</v>
       </c>
       <c r="C291" t="s">
         <v>1918</v>
@@ -33905,7 +33905,7 @@
         <v>11500</v>
       </c>
       <c r="B292" t="n">
-        <v>138895</v>
+        <v>169986</v>
       </c>
       <c r="C292" t="s">
         <v>1925</v>
@@ -33972,7 +33972,7 @@
         <v>11500</v>
       </c>
       <c r="B293" t="n">
-        <v>138896</v>
+        <v>169987</v>
       </c>
       <c r="C293" t="s">
         <v>1932</v>
@@ -34043,7 +34043,7 @@
         <v>11500</v>
       </c>
       <c r="B294" t="n">
-        <v>138897</v>
+        <v>169988</v>
       </c>
       <c r="C294" t="s">
         <v>1938</v>
@@ -34112,7 +34112,7 @@
         <v>11500</v>
       </c>
       <c r="B295" t="n">
-        <v>138898</v>
+        <v>169989</v>
       </c>
       <c r="C295" t="s">
         <v>1947</v>
@@ -34254,7 +34254,7 @@
         <v>11500</v>
       </c>
       <c r="B297" t="n">
-        <v>138899</v>
+        <v>169990</v>
       </c>
       <c r="C297" t="s">
         <v>1964</v>
@@ -34542,7 +34542,7 @@
         <v>11500</v>
       </c>
       <c r="B301" t="n">
-        <v>138900</v>
+        <v>169991</v>
       </c>
       <c r="C301" t="s">
         <v>1991</v>
@@ -34607,7 +34607,7 @@
         <v>11500</v>
       </c>
       <c r="B302" t="n">
-        <v>138901</v>
+        <v>169992</v>
       </c>
       <c r="C302" t="s">
         <v>1997</v>
@@ -34682,7 +34682,7 @@
         <v>11500</v>
       </c>
       <c r="B303" t="n">
-        <v>138902</v>
+        <v>169993</v>
       </c>
       <c r="C303" t="s">
         <v>2006</v>
@@ -34820,7 +34820,7 @@
         <v>11500</v>
       </c>
       <c r="B305" t="n">
-        <v>138903</v>
+        <v>169994</v>
       </c>
       <c r="C305" t="s">
         <v>2018</v>
@@ -34891,7 +34891,7 @@
         <v>11500</v>
       </c>
       <c r="B306" t="n">
-        <v>138904</v>
+        <v>169995</v>
       </c>
       <c r="C306" t="s">
         <v>2024</v>
@@ -35305,7 +35305,7 @@
         <v>11500</v>
       </c>
       <c r="B312" t="n">
-        <v>138905</v>
+        <v>169996</v>
       </c>
       <c r="C312" t="s">
         <v>2070</v>
@@ -35376,7 +35376,7 @@
         <v>11500</v>
       </c>
       <c r="B313" t="n">
-        <v>138906</v>
+        <v>169997</v>
       </c>
       <c r="C313" t="s">
         <v>2075</v>
@@ -35518,7 +35518,7 @@
         <v>11500</v>
       </c>
       <c r="B315" t="n">
-        <v>138907</v>
+        <v>169998</v>
       </c>
       <c r="C315" t="s">
         <v>2090</v>
@@ -35593,7 +35593,7 @@
         <v>11500</v>
       </c>
       <c r="B316" t="n">
-        <v>138908</v>
+        <v>169999</v>
       </c>
       <c r="C316" t="s">
         <v>2097</v>
@@ -35731,7 +35731,7 @@
         <v>11500</v>
       </c>
       <c r="B318" t="n">
-        <v>138909</v>
+        <v>170000</v>
       </c>
       <c r="C318" t="s">
         <v>2109</v>
@@ -35792,7 +35792,7 @@
         <v>11500</v>
       </c>
       <c r="B319" t="n">
-        <v>138910</v>
+        <v>170001</v>
       </c>
       <c r="C319" t="s">
         <v>2116</v>
@@ -35863,7 +35863,7 @@
         <v>11500</v>
       </c>
       <c r="B320" t="n">
-        <v>138911</v>
+        <v>170002</v>
       </c>
       <c r="C320" t="s">
         <v>2122</v>
@@ -36005,7 +36005,7 @@
         <v>11500</v>
       </c>
       <c r="B322" t="n">
-        <v>138912</v>
+        <v>170003</v>
       </c>
       <c r="C322" t="s">
         <v>2134</v>
@@ -36072,7 +36072,7 @@
         <v>11500</v>
       </c>
       <c r="B323" t="n">
-        <v>138913</v>
+        <v>170004</v>
       </c>
       <c r="C323" t="s">
         <v>2140</v>
@@ -36287,7 +36287,7 @@
         <v>11500</v>
       </c>
       <c r="B326" t="n">
-        <v>138914</v>
+        <v>170005</v>
       </c>
       <c r="C326" t="s">
         <v>2160</v>
@@ -36429,7 +36429,7 @@
         <v>11500</v>
       </c>
       <c r="B328" t="n">
-        <v>138915</v>
+        <v>170006</v>
       </c>
       <c r="C328" t="s">
         <v>2172</v>
@@ -36579,7 +36579,7 @@
         <v>11500</v>
       </c>
       <c r="B330" t="n">
-        <v>138916</v>
+        <v>170007</v>
       </c>
       <c r="C330" t="s">
         <v>2189</v>
@@ -36640,7 +36640,7 @@
         <v>11500</v>
       </c>
       <c r="B331" t="n">
-        <v>138917</v>
+        <v>170008</v>
       </c>
       <c r="C331" t="s">
         <v>2196</v>
@@ -36701,7 +36701,7 @@
         <v>11500</v>
       </c>
       <c r="B332" t="n">
-        <v>138918</v>
+        <v>170009</v>
       </c>
       <c r="C332" t="s">
         <v>2203</v>
@@ -36772,7 +36772,7 @@
         <v>11500</v>
       </c>
       <c r="B333" t="n">
-        <v>138919</v>
+        <v>170010</v>
       </c>
       <c r="C333" t="s">
         <v>2209</v>
@@ -36910,7 +36910,7 @@
         <v>11500</v>
       </c>
       <c r="B335" t="n">
-        <v>138920</v>
+        <v>170011</v>
       </c>
       <c r="C335" t="s">
         <v>2221</v>
@@ -36967,7 +36967,7 @@
         <v>11500</v>
       </c>
       <c r="B336" t="n">
-        <v>138921</v>
+        <v>170012</v>
       </c>
       <c r="C336" t="s">
         <v>2227</v>
@@ -37109,7 +37109,7 @@
         <v>11500</v>
       </c>
       <c r="B338" t="n">
-        <v>138922</v>
+        <v>170013</v>
       </c>
       <c r="C338" t="s">
         <v>2240</v>
@@ -37184,7 +37184,7 @@
         <v>11500</v>
       </c>
       <c r="B339" t="n">
-        <v>138923</v>
+        <v>170014</v>
       </c>
       <c r="C339" t="s">
         <v>2249</v>
@@ -37255,7 +37255,7 @@
         <v>11500</v>
       </c>
       <c r="B340" t="n">
-        <v>138924</v>
+        <v>170015</v>
       </c>
       <c r="C340" t="s">
         <v>2254</v>
@@ -37326,7 +37326,7 @@
         <v>11500</v>
       </c>
       <c r="B341" t="n">
-        <v>138925</v>
+        <v>170016</v>
       </c>
       <c r="C341" t="s">
         <v>2259</v>
@@ -37397,7 +37397,7 @@
         <v>11500</v>
       </c>
       <c r="B342" t="n">
-        <v>138926</v>
+        <v>170017</v>
       </c>
       <c r="C342" t="s">
         <v>2266</v>
@@ -37610,7 +37610,7 @@
         <v>11500</v>
       </c>
       <c r="B345" t="n">
-        <v>138927</v>
+        <v>170018</v>
       </c>
       <c r="C345" t="s">
         <v>2283</v>
@@ -37685,7 +37685,7 @@
         <v>11500</v>
       </c>
       <c r="B346" t="n">
-        <v>138928</v>
+        <v>170019</v>
       </c>
       <c r="C346" t="s">
         <v>2292</v>
@@ -37756,7 +37756,7 @@
         <v>11500</v>
       </c>
       <c r="B347" t="n">
-        <v>138929</v>
+        <v>170020</v>
       </c>
       <c r="C347" t="s">
         <v>2298</v>
@@ -37827,7 +37827,7 @@
         <v>11500</v>
       </c>
       <c r="B348" t="n">
-        <v>138930</v>
+        <v>170021</v>
       </c>
       <c r="C348" t="s">
         <v>2304</v>
@@ -37900,7 +37900,7 @@
         <v>11500</v>
       </c>
       <c r="B349" t="n">
-        <v>138931</v>
+        <v>170022</v>
       </c>
       <c r="C349" t="s">
         <v>2313</v>
@@ -37975,7 +37975,7 @@
         <v>11500</v>
       </c>
       <c r="B350" t="n">
-        <v>138932</v>
+        <v>170023</v>
       </c>
       <c r="C350" t="s">
         <v>2321</v>
@@ -38117,7 +38117,7 @@
         <v>11500</v>
       </c>
       <c r="B352" t="n">
-        <v>138933</v>
+        <v>170024</v>
       </c>
       <c r="C352" t="s">
         <v>2332</v>
@@ -38188,7 +38188,7 @@
         <v>11500</v>
       </c>
       <c r="B353" t="n">
-        <v>138934</v>
+        <v>170025</v>
       </c>
       <c r="C353" t="s">
         <v>2338</v>
@@ -38253,7 +38253,7 @@
         <v>11500</v>
       </c>
       <c r="B354" t="n">
-        <v>138935</v>
+        <v>170026</v>
       </c>
       <c r="C354" t="s">
         <v>2345</v>
@@ -38324,7 +38324,7 @@
         <v>11500</v>
       </c>
       <c r="B355" t="n">
-        <v>138936</v>
+        <v>170027</v>
       </c>
       <c r="C355" t="s">
         <v>2351</v>
@@ -38462,7 +38462,7 @@
         <v>11500</v>
       </c>
       <c r="B357" t="n">
-        <v>138937</v>
+        <v>170028</v>
       </c>
       <c r="C357" t="s">
         <v>2361</v>
@@ -38537,7 +38537,7 @@
         <v>11500</v>
       </c>
       <c r="B358" t="n">
-        <v>138938</v>
+        <v>170029</v>
       </c>
       <c r="C358" t="s">
         <v>2370</v>
@@ -38612,7 +38612,7 @@
         <v>11500</v>
       </c>
       <c r="B359" t="n">
-        <v>138939</v>
+        <v>170030</v>
       </c>
       <c r="C359" t="s">
         <v>2375</v>
@@ -38754,7 +38754,7 @@
         <v>11500</v>
       </c>
       <c r="B361" t="n">
-        <v>138940</v>
+        <v>170031</v>
       </c>
       <c r="C361" t="s">
         <v>2385</v>
@@ -39034,7 +39034,7 @@
         <v>11500</v>
       </c>
       <c r="B365" t="n">
-        <v>138941</v>
+        <v>170032</v>
       </c>
       <c r="C365" t="s">
         <v>2408</v>
@@ -39176,7 +39176,7 @@
         <v>11500</v>
       </c>
       <c r="B367" t="n">
-        <v>138942</v>
+        <v>170033</v>
       </c>
       <c r="C367" t="s">
         <v>2419</v>
@@ -39247,7 +39247,7 @@
         <v>11500</v>
       </c>
       <c r="B368" t="n">
-        <v>138943</v>
+        <v>170034</v>
       </c>
       <c r="C368" t="s">
         <v>2425</v>
@@ -39312,7 +39312,7 @@
         <v>11500</v>
       </c>
       <c r="B369" t="n">
-        <v>138944</v>
+        <v>170035</v>
       </c>
       <c r="C369" t="s">
         <v>2432</v>
@@ -39383,7 +39383,7 @@
         <v>11500</v>
       </c>
       <c r="B370" t="n">
-        <v>138945</v>
+        <v>170036</v>
       </c>
       <c r="C370" t="s">
         <v>2438</v>
@@ -39604,7 +39604,7 @@
         <v>11500</v>
       </c>
       <c r="B373" t="n">
-        <v>138946</v>
+        <v>170037</v>
       </c>
       <c r="C373" t="s">
         <v>2460</v>
@@ -39813,7 +39813,7 @@
         <v>11500</v>
       </c>
       <c r="B376" t="n">
-        <v>138947</v>
+        <v>170038</v>
       </c>
       <c r="C376" t="s">
         <v>2484</v>
@@ -39884,7 +39884,7 @@
         <v>11500</v>
       </c>
       <c r="B377" t="n">
-        <v>138948</v>
+        <v>170039</v>
       </c>
       <c r="C377" t="s">
         <v>2491</v>
@@ -40184,7 +40184,7 @@
         <v>11500</v>
       </c>
       <c r="B381" t="n">
-        <v>138949</v>
+        <v>170040</v>
       </c>
       <c r="C381" t="s">
         <v>2519</v>
@@ -40334,7 +40334,7 @@
         <v>11500</v>
       </c>
       <c r="B383" t="n">
-        <v>138950</v>
+        <v>170041</v>
       </c>
       <c r="C383" t="s">
         <v>2534</v>
@@ -40405,7 +40405,7 @@
         <v>11500</v>
       </c>
       <c r="B384" t="n">
-        <v>138951</v>
+        <v>170042</v>
       </c>
       <c r="C384" t="s">
         <v>2543</v>
@@ -40480,7 +40480,7 @@
         <v>11500</v>
       </c>
       <c r="B385" t="n">
-        <v>138952</v>
+        <v>170043</v>
       </c>
       <c r="C385" t="s">
         <v>2549</v>
@@ -40701,7 +40701,7 @@
         <v>11500</v>
       </c>
       <c r="B388" t="n">
-        <v>138953</v>
+        <v>170044</v>
       </c>
       <c r="C388" t="s">
         <v>2576</v>
@@ -40910,7 +40910,7 @@
         <v>11500</v>
       </c>
       <c r="B391" t="n">
-        <v>138954</v>
+        <v>170045</v>
       </c>
       <c r="C391" t="s">
         <v>2603</v>
@@ -40981,7 +40981,7 @@
         <v>11500</v>
       </c>
       <c r="B392" t="n">
-        <v>138955</v>
+        <v>170046</v>
       </c>
       <c r="C392" t="s">
         <v>2609</v>
@@ -41192,7 +41192,7 @@
         <v>11500</v>
       </c>
       <c r="B395" t="n">
-        <v>138956</v>
+        <v>170047</v>
       </c>
       <c r="C395" t="s">
         <v>2632</v>
@@ -41342,7 +41342,7 @@
         <v>11500</v>
       </c>
       <c r="B397" t="n">
-        <v>138957</v>
+        <v>170048</v>
       </c>
       <c r="C397" t="s">
         <v>2647</v>
@@ -41474,7 +41474,7 @@
         <v>11500</v>
       </c>
       <c r="B399" t="n">
-        <v>138958</v>
+        <v>170049</v>
       </c>
       <c r="C399" t="s">
         <v>2658</v>
@@ -41545,7 +41545,7 @@
         <v>11500</v>
       </c>
       <c r="B400" t="n">
-        <v>138959</v>
+        <v>170050</v>
       </c>
       <c r="C400" t="s">
         <v>2667</v>
@@ -41691,7 +41691,7 @@
         <v>11500</v>
       </c>
       <c r="B402" t="n">
-        <v>138960</v>
+        <v>170051</v>
       </c>
       <c r="C402" t="s">
         <v>2683</v>
@@ -41916,7 +41916,7 @@
         <v>11500</v>
       </c>
       <c r="B405" t="n">
-        <v>138961</v>
+        <v>170052</v>
       </c>
       <c r="C405" t="s">
         <v>2708</v>
@@ -42058,7 +42058,7 @@
         <v>11500</v>
       </c>
       <c r="B407" t="n">
-        <v>138962</v>
+        <v>170053</v>
       </c>
       <c r="C407" t="s">
         <v>2719</v>
@@ -42129,7 +42129,7 @@
         <v>11500</v>
       </c>
       <c r="B408" t="n">
-        <v>138963</v>
+        <v>170054</v>
       </c>
       <c r="C408" t="s">
         <v>2726</v>
@@ -42628,7 +42628,7 @@
         <v>11500</v>
       </c>
       <c r="B415" t="n">
-        <v>138964</v>
+        <v>170055</v>
       </c>
       <c r="C415" t="s">
         <v>2779</v>
@@ -42703,7 +42703,7 @@
         <v>11500</v>
       </c>
       <c r="B416" t="n">
-        <v>138965</v>
+        <v>170056</v>
       </c>
       <c r="C416" t="s">
         <v>2786</v>
@@ -42841,7 +42841,7 @@
         <v>11500</v>
       </c>
       <c r="B418" t="n">
-        <v>138966</v>
+        <v>170057</v>
       </c>
       <c r="C418" t="s">
         <v>2799</v>
@@ -43058,7 +43058,7 @@
         <v>11500</v>
       </c>
       <c r="B421" t="n">
-        <v>138967</v>
+        <v>170058</v>
       </c>
       <c r="C421" t="s">
         <v>2817</v>
@@ -43129,7 +43129,7 @@
         <v>11500</v>
       </c>
       <c r="B422" t="n">
-        <v>138968</v>
+        <v>170059</v>
       </c>
       <c r="C422" t="s">
         <v>2824</v>
@@ -43346,7 +43346,7 @@
         <v>11500</v>
       </c>
       <c r="B425" t="n">
-        <v>138969</v>
+        <v>170060</v>
       </c>
       <c r="C425" t="s">
         <v>2844</v>
@@ -43492,7 +43492,7 @@
         <v>11500</v>
       </c>
       <c r="B427" t="n">
-        <v>138970</v>
+        <v>170061</v>
       </c>
       <c r="C427" t="s">
         <v>2856</v>
@@ -43634,7 +43634,7 @@
         <v>11500</v>
       </c>
       <c r="B429" t="n">
-        <v>138971</v>
+        <v>170062</v>
       </c>
       <c r="C429" t="s">
         <v>2869</v>
@@ -43705,7 +43705,7 @@
         <v>11500</v>
       </c>
       <c r="B430" t="n">
-        <v>138972</v>
+        <v>170063</v>
       </c>
       <c r="C430" t="s">
         <v>2875</v>
@@ -43776,7 +43776,7 @@
         <v>11500</v>
       </c>
       <c r="B431" t="n">
-        <v>138973</v>
+        <v>170064</v>
       </c>
       <c r="C431" t="s">
         <v>2880</v>
@@ -43847,7 +43847,7 @@
         <v>11500</v>
       </c>
       <c r="B432" t="n">
-        <v>138746</v>
+        <v>138726</v>
       </c>
       <c r="C432" t="s">
         <v>446</v>
@@ -43918,7 +43918,7 @@
         <v>11500</v>
       </c>
       <c r="B433" t="n">
-        <v>138974</v>
+        <v>170065</v>
       </c>
       <c r="C433" t="s">
         <v>2891</v>
@@ -44202,7 +44202,7 @@
         <v>11500</v>
       </c>
       <c r="B437" t="n">
-        <v>138975</v>
+        <v>170066</v>
       </c>
       <c r="C437" t="s">
         <v>2915</v>
@@ -44267,7 +44267,7 @@
         <v>11500</v>
       </c>
       <c r="B438" t="n">
-        <v>138976</v>
+        <v>170067</v>
       </c>
       <c r="C438" t="s">
         <v>2921</v>
@@ -44480,7 +44480,7 @@
         <v>11500</v>
       </c>
       <c r="B441" t="n">
-        <v>138977</v>
+        <v>170068</v>
       </c>
       <c r="C441" t="s">
         <v>2938</v>
@@ -44835,7 +44835,7 @@
         <v>11500</v>
       </c>
       <c r="B446" t="n">
-        <v>138978</v>
+        <v>170069</v>
       </c>
       <c r="C446" t="s">
         <v>2967</v>
@@ -44906,7 +44906,7 @@
         <v>11500</v>
       </c>
       <c r="B447" t="n">
-        <v>138979</v>
+        <v>170070</v>
       </c>
       <c r="C447" t="s">
         <v>2973</v>
@@ -44977,7 +44977,7 @@
         <v>11500</v>
       </c>
       <c r="B448" t="n">
-        <v>138980</v>
+        <v>170071</v>
       </c>
       <c r="C448" t="s">
         <v>2978</v>
@@ -45190,7 +45190,7 @@
         <v>11500</v>
       </c>
       <c r="B451" t="n">
-        <v>138981</v>
+        <v>170072</v>
       </c>
       <c r="C451" t="s">
         <v>2995</v>
@@ -45336,7 +45336,7 @@
         <v>11500</v>
       </c>
       <c r="B453" t="n">
-        <v>138982</v>
+        <v>170073</v>
       </c>
       <c r="C453" t="s">
         <v>3010</v>
@@ -45407,7 +45407,7 @@
         <v>11500</v>
       </c>
       <c r="B454" t="n">
-        <v>138983</v>
+        <v>170074</v>
       </c>
       <c r="C454" t="s">
         <v>3015</v>
@@ -45478,7 +45478,7 @@
         <v>11500</v>
       </c>
       <c r="B455" t="n">
-        <v>138984</v>
+        <v>170075</v>
       </c>
       <c r="C455" t="s">
         <v>3021</v>
@@ -45549,7 +45549,7 @@
         <v>11500</v>
       </c>
       <c r="B456" t="n">
-        <v>138985</v>
+        <v>170076</v>
       </c>
       <c r="C456" t="s">
         <v>3027</v>
@@ -45614,7 +45614,7 @@
         <v>11500</v>
       </c>
       <c r="B457" t="n">
-        <v>138986</v>
+        <v>170077</v>
       </c>
       <c r="C457" t="s">
         <v>3036</v>
@@ -45689,7 +45689,7 @@
         <v>11500</v>
       </c>
       <c r="B458" t="n">
-        <v>138987</v>
+        <v>170078</v>
       </c>
       <c r="C458" t="s">
         <v>3045</v>
@@ -45760,7 +45760,7 @@
         <v>11500</v>
       </c>
       <c r="B459" t="n">
-        <v>138988</v>
+        <v>170079</v>
       </c>
       <c r="C459" t="s">
         <v>3052</v>
@@ -45977,7 +45977,7 @@
         <v>11500</v>
       </c>
       <c r="B462" t="n">
-        <v>138989</v>
+        <v>170080</v>
       </c>
       <c r="C462" t="s">
         <v>3072</v>
@@ -46048,7 +46048,7 @@
         <v>11500</v>
       </c>
       <c r="B463" t="n">
-        <v>138990</v>
+        <v>170081</v>
       </c>
       <c r="C463" t="s">
         <v>3078</v>
@@ -46261,7 +46261,7 @@
         <v>11500</v>
       </c>
       <c r="B466" t="n">
-        <v>138991</v>
+        <v>170082</v>
       </c>
       <c r="C466" t="s">
         <v>3098</v>
@@ -46332,7 +46332,7 @@
         <v>11500</v>
       </c>
       <c r="B467" t="n">
-        <v>138992</v>
+        <v>170083</v>
       </c>
       <c r="C467" t="s">
         <v>3104</v>
@@ -46545,7 +46545,7 @@
         <v>11500</v>
       </c>
       <c r="B470" t="n">
-        <v>138993</v>
+        <v>170084</v>
       </c>
       <c r="C470" t="s">
         <v>3121</v>
@@ -46829,7 +46829,7 @@
         <v>11500</v>
       </c>
       <c r="B474" t="n">
-        <v>138994</v>
+        <v>170085</v>
       </c>
       <c r="C474" t="s">
         <v>3145</v>
@@ -46900,7 +46900,7 @@
         <v>11500</v>
       </c>
       <c r="B475" t="n">
-        <v>138995</v>
+        <v>170086</v>
       </c>
       <c r="C475" t="s">
         <v>3151</v>
@@ -47326,7 +47326,7 @@
         <v>11500</v>
       </c>
       <c r="B481" t="n">
-        <v>138996</v>
+        <v>170087</v>
       </c>
       <c r="C481" t="s">
         <v>3193</v>
@@ -47393,7 +47393,7 @@
         <v>11500</v>
       </c>
       <c r="B482" t="n">
-        <v>138997</v>
+        <v>170088</v>
       </c>
       <c r="C482" t="s">
         <v>3199</v>
@@ -47539,7 +47539,7 @@
         <v>11500</v>
       </c>
       <c r="B484" t="n">
-        <v>138998</v>
+        <v>170089</v>
       </c>
       <c r="C484" t="s">
         <v>3218</v>
@@ -47689,7 +47689,7 @@
         <v>11500</v>
       </c>
       <c r="B486" t="n">
-        <v>138999</v>
+        <v>170090</v>
       </c>
       <c r="C486" t="s">
         <v>3232</v>
@@ -47764,7 +47764,7 @@
         <v>11500</v>
       </c>
       <c r="B487" t="n">
-        <v>139000</v>
+        <v>170091</v>
       </c>
       <c r="C487" t="s">
         <v>3241</v>
@@ -47835,7 +47835,7 @@
         <v>11500</v>
       </c>
       <c r="B488" t="n">
-        <v>139001</v>
+        <v>170092</v>
       </c>
       <c r="C488" t="s">
         <v>3248</v>
@@ -48046,7 +48046,7 @@
         <v>11500</v>
       </c>
       <c r="B491" t="n">
-        <v>139002</v>
+        <v>170093</v>
       </c>
       <c r="C491" t="s">
         <v>3270</v>
@@ -48259,7 +48259,7 @@
         <v>11500</v>
       </c>
       <c r="B494" t="n">
-        <v>139003</v>
+        <v>170094</v>
       </c>
       <c r="C494" t="s">
         <v>3288</v>
@@ -48330,7 +48330,7 @@
         <v>11500</v>
       </c>
       <c r="B495" t="n">
-        <v>139004</v>
+        <v>170095</v>
       </c>
       <c r="C495" t="s">
         <v>3295</v>
@@ -48395,7 +48395,7 @@
         <v>11500</v>
       </c>
       <c r="B496" t="n">
-        <v>139005</v>
+        <v>170096</v>
       </c>
       <c r="C496" t="s">
         <v>3302</v>
@@ -48531,7 +48531,7 @@
         <v>11500</v>
       </c>
       <c r="B498" t="n">
-        <v>139006</v>
+        <v>170097</v>
       </c>
       <c r="C498" t="s">
         <v>3316</v>
@@ -48602,7 +48602,7 @@
         <v>11500</v>
       </c>
       <c r="B499" t="n">
-        <v>139007</v>
+        <v>170098</v>
       </c>
       <c r="C499" t="s">
         <v>3324</v>
@@ -48677,7 +48677,7 @@
         <v>11500</v>
       </c>
       <c r="B500" t="n">
-        <v>139008</v>
+        <v>170099</v>
       </c>
       <c r="C500" t="s">
         <v>3333</v>
@@ -48752,7 +48752,7 @@
         <v>11500</v>
       </c>
       <c r="B501" t="n">
-        <v>139009</v>
+        <v>170100</v>
       </c>
       <c r="C501" t="s">
         <v>3342</v>
@@ -48898,7 +48898,7 @@
         <v>11500</v>
       </c>
       <c r="B503" t="n">
-        <v>139010</v>
+        <v>170101</v>
       </c>
       <c r="C503" t="s">
         <v>3357</v>
@@ -49048,7 +49048,7 @@
         <v>11500</v>
       </c>
       <c r="B505" t="n">
-        <v>139011</v>
+        <v>170102</v>
       </c>
       <c r="C505" t="s">
         <v>3376</v>
@@ -49123,7 +49123,7 @@
         <v>11500</v>
       </c>
       <c r="B506" t="n">
-        <v>139012</v>
+        <v>170103</v>
       </c>
       <c r="C506" t="s">
         <v>3383</v>
@@ -49273,7 +49273,7 @@
         <v>11500</v>
       </c>
       <c r="B508" t="n">
-        <v>139013</v>
+        <v>170104</v>
       </c>
       <c r="C508" t="s">
         <v>3395</v>
@@ -49498,7 +49498,7 @@
         <v>11500</v>
       </c>
       <c r="B511" t="n">
-        <v>139014</v>
+        <v>170105</v>
       </c>
       <c r="C511" t="s">
         <v>3420</v>
@@ -49573,7 +49573,7 @@
         <v>11500</v>
       </c>
       <c r="B512" t="n">
-        <v>139015</v>
+        <v>170106</v>
       </c>
       <c r="C512" t="s">
         <v>3427</v>
@@ -49794,7 +49794,7 @@
         <v>11500</v>
       </c>
       <c r="B515" t="n">
-        <v>139016</v>
+        <v>170107</v>
       </c>
       <c r="C515" t="s">
         <v>3447</v>
@@ -49869,7 +49869,7 @@
         <v>11500</v>
       </c>
       <c r="B516" t="n">
-        <v>139017</v>
+        <v>170108</v>
       </c>
       <c r="C516" t="s">
         <v>3456</v>
@@ -49944,7 +49944,7 @@
         <v>11500</v>
       </c>
       <c r="B517" t="n">
-        <v>139018</v>
+        <v>170109</v>
       </c>
       <c r="C517" t="s">
         <v>3465</v>
@@ -50094,7 +50094,7 @@
         <v>11500</v>
       </c>
       <c r="B519" t="n">
-        <v>139019</v>
+        <v>170110</v>
       </c>
       <c r="C519" t="s">
         <v>3482</v>
@@ -50169,7 +50169,7 @@
         <v>11500</v>
       </c>
       <c r="B520" t="n">
-        <v>139020</v>
+        <v>170111</v>
       </c>
       <c r="C520" t="s">
         <v>3491</v>
@@ -50240,7 +50240,7 @@
         <v>11500</v>
       </c>
       <c r="B521" t="n">
-        <v>139021</v>
+        <v>170112</v>
       </c>
       <c r="C521" t="s">
         <v>3498</v>
@@ -50540,7 +50540,7 @@
         <v>11500</v>
       </c>
       <c r="B525" t="n">
-        <v>139022</v>
+        <v>170113</v>
       </c>
       <c r="C525" t="s">
         <v>3531</v>
@@ -50757,7 +50757,7 @@
         <v>11500</v>
       </c>
       <c r="B528" t="n">
-        <v>139023</v>
+        <v>170114</v>
       </c>
       <c r="C528" t="s">
         <v>3555</v>
@@ -50832,7 +50832,7 @@
         <v>11500</v>
       </c>
       <c r="B529" t="n">
-        <v>139024</v>
+        <v>170115</v>
       </c>
       <c r="C529" t="s">
         <v>3563</v>
@@ -50907,7 +50907,7 @@
         <v>11500</v>
       </c>
       <c r="B530" t="n">
-        <v>139025</v>
+        <v>170116</v>
       </c>
       <c r="C530" t="s">
         <v>3569</v>
@@ -50982,7 +50982,7 @@
         <v>11500</v>
       </c>
       <c r="B531" t="n">
-        <v>139026</v>
+        <v>170117</v>
       </c>
       <c r="C531" t="s">
         <v>3578</v>
@@ -51122,7 +51122,7 @@
         <v>11500</v>
       </c>
       <c r="B533" t="n">
-        <v>139027</v>
+        <v>170118</v>
       </c>
       <c r="C533" t="s">
         <v>3591</v>
@@ -51272,7 +51272,7 @@
         <v>11500</v>
       </c>
       <c r="B535" t="n">
-        <v>139028</v>
+        <v>170119</v>
       </c>
       <c r="C535" t="s">
         <v>3607</v>
@@ -51347,7 +51347,7 @@
         <v>11500</v>
       </c>
       <c r="B536" t="n">
-        <v>139029</v>
+        <v>170120</v>
       </c>
       <c r="C536" t="s">
         <v>3613</v>
@@ -51412,7 +51412,7 @@
         <v>11500</v>
       </c>
       <c r="B537" t="n">
-        <v>139030</v>
+        <v>170121</v>
       </c>
       <c r="C537" t="s">
         <v>3622</v>
@@ -51487,7 +51487,7 @@
         <v>11500</v>
       </c>
       <c r="B538" t="n">
-        <v>139031</v>
+        <v>170122</v>
       </c>
       <c r="C538" t="s">
         <v>3631</v>
@@ -51637,7 +51637,7 @@
         <v>11500</v>
       </c>
       <c r="B540" t="n">
-        <v>139032</v>
+        <v>170123</v>
       </c>
       <c r="C540" t="s">
         <v>3648</v>
@@ -51712,7 +51712,7 @@
         <v>11500</v>
       </c>
       <c r="B541" t="n">
-        <v>139033</v>
+        <v>170124</v>
       </c>
       <c r="C541" t="s">
         <v>3657</v>
@@ -51787,7 +51787,7 @@
         <v>11500</v>
       </c>
       <c r="B542" t="n">
-        <v>139034</v>
+        <v>170125</v>
       </c>
       <c r="C542" t="s">
         <v>3667</v>
@@ -51994,7 +51994,7 @@
         <v>11500</v>
       </c>
       <c r="B545" t="n">
-        <v>139035</v>
+        <v>170126</v>
       </c>
       <c r="C545" t="s">
         <v>3688</v>
@@ -52069,7 +52069,7 @@
         <v>11500</v>
       </c>
       <c r="B546" t="n">
-        <v>139036</v>
+        <v>170127</v>
       </c>
       <c r="C546" t="s">
         <v>3698</v>
@@ -52219,7 +52219,7 @@
         <v>11500</v>
       </c>
       <c r="B548" t="n">
-        <v>139037</v>
+        <v>170128</v>
       </c>
       <c r="C548" t="s">
         <v>3716</v>
@@ -52365,7 +52365,7 @@
         <v>11500</v>
       </c>
       <c r="B550" t="n">
-        <v>139038</v>
+        <v>170129</v>
       </c>
       <c r="C550" t="s">
         <v>3730</v>
@@ -52440,7 +52440,7 @@
         <v>11500</v>
       </c>
       <c r="B551" t="n">
-        <v>139039</v>
+        <v>170130</v>
       </c>
       <c r="C551" t="s">
         <v>3738</v>
@@ -52515,7 +52515,7 @@
         <v>11500</v>
       </c>
       <c r="B552" t="n">
-        <v>139040</v>
+        <v>170131</v>
       </c>
       <c r="C552" t="s">
         <v>3747</v>
@@ -52590,7 +52590,7 @@
         <v>11500</v>
       </c>
       <c r="B553" t="n">
-        <v>139041</v>
+        <v>170132</v>
       </c>
       <c r="C553" t="s">
         <v>3754</v>
@@ -52665,7 +52665,7 @@
         <v>11500</v>
       </c>
       <c r="B554" t="n">
-        <v>139042</v>
+        <v>170133</v>
       </c>
       <c r="C554" t="s">
         <v>3763</v>
@@ -52740,7 +52740,7 @@
         <v>11500</v>
       </c>
       <c r="B555" t="n">
-        <v>139043</v>
+        <v>170134</v>
       </c>
       <c r="C555" t="s">
         <v>3772</v>
@@ -52886,7 +52886,7 @@
         <v>11500</v>
       </c>
       <c r="B557" t="n">
-        <v>139044</v>
+        <v>170135</v>
       </c>
       <c r="C557" t="s">
         <v>3787</v>
@@ -52961,7 +52961,7 @@
         <v>11500</v>
       </c>
       <c r="B558" t="n">
-        <v>139045</v>
+        <v>170136</v>
       </c>
       <c r="C558" t="s">
         <v>3795</v>
@@ -53036,7 +53036,7 @@
         <v>11500</v>
       </c>
       <c r="B559" t="n">
-        <v>139046</v>
+        <v>170137</v>
       </c>
       <c r="C559" t="s">
         <v>3804</v>
@@ -53111,7 +53111,7 @@
         <v>11500</v>
       </c>
       <c r="B560" t="n">
-        <v>139047</v>
+        <v>170138</v>
       </c>
       <c r="C560" t="s">
         <v>3813</v>
@@ -53336,7 +53336,7 @@
         <v>11500</v>
       </c>
       <c r="B563" t="n">
-        <v>139048</v>
+        <v>170139</v>
       </c>
       <c r="C563" t="s">
         <v>3835</v>
@@ -53411,7 +53411,7 @@
         <v>11500</v>
       </c>
       <c r="B564" t="n">
-        <v>139049</v>
+        <v>170140</v>
       </c>
       <c r="C564" t="s">
         <v>3845</v>
@@ -53476,7 +53476,7 @@
         <v>11500</v>
       </c>
       <c r="B565" t="n">
-        <v>139050</v>
+        <v>170141</v>
       </c>
       <c r="C565" t="s">
         <v>3852</v>
@@ -53701,7 +53701,7 @@
         <v>11500</v>
       </c>
       <c r="B568" t="n">
-        <v>139051</v>
+        <v>170142</v>
       </c>
       <c r="C568" t="s">
         <v>3879</v>
@@ -53766,7 +53766,7 @@
         <v>11500</v>
       </c>
       <c r="B569" t="n">
-        <v>139052</v>
+        <v>170143</v>
       </c>
       <c r="C569" t="s">
         <v>3888</v>
@@ -53991,7 +53991,7 @@
         <v>11500</v>
       </c>
       <c r="B572" t="n">
-        <v>139053</v>
+        <v>170144</v>
       </c>
       <c r="C572" t="s">
         <v>3917</v>
@@ -54212,7 +54212,7 @@
         <v>11500</v>
       </c>
       <c r="B575" t="n">
-        <v>139054</v>
+        <v>170145</v>
       </c>
       <c r="C575" t="s">
         <v>3945</v>
@@ -54287,7 +54287,7 @@
         <v>11500</v>
       </c>
       <c r="B576" t="n">
-        <v>139055</v>
+        <v>170146</v>
       </c>
       <c r="C576" t="s">
         <v>3954</v>
@@ -54362,7 +54362,7 @@
         <v>11500</v>
       </c>
       <c r="B577" t="n">
-        <v>139056</v>
+        <v>170147</v>
       </c>
       <c r="C577" t="s">
         <v>3963</v>
@@ -54437,7 +54437,7 @@
         <v>11500</v>
       </c>
       <c r="B578" t="n">
-        <v>139057</v>
+        <v>170148</v>
       </c>
       <c r="C578" t="s">
         <v>3972</v>
@@ -54512,7 +54512,7 @@
         <v>11500</v>
       </c>
       <c r="B579" t="n">
-        <v>139058</v>
+        <v>170149</v>
       </c>
       <c r="C579" t="s">
         <v>3982</v>
@@ -54587,7 +54587,7 @@
         <v>11500</v>
       </c>
       <c r="B580" t="n">
-        <v>139059</v>
+        <v>170150</v>
       </c>
       <c r="C580" t="s">
         <v>3989</v>
@@ -54658,7 +54658,7 @@
         <v>11500</v>
       </c>
       <c r="B581" t="n">
-        <v>139060</v>
+        <v>170151</v>
       </c>
       <c r="C581" t="s">
         <v>3996</v>
@@ -54729,7 +54729,7 @@
         <v>11500</v>
       </c>
       <c r="B582" t="n">
-        <v>139061</v>
+        <v>170152</v>
       </c>
       <c r="C582" t="s">
         <v>4006</v>
@@ -54800,7 +54800,7 @@
         <v>11500</v>
       </c>
       <c r="B583" t="n">
-        <v>139062</v>
+        <v>170153</v>
       </c>
       <c r="C583" t="s">
         <v>4013</v>
@@ -54942,7 +54942,7 @@
         <v>11500</v>
       </c>
       <c r="B585" t="n">
-        <v>139063</v>
+        <v>170154</v>
       </c>
       <c r="C585" t="s">
         <v>4029</v>
@@ -55013,7 +55013,7 @@
         <v>11500</v>
       </c>
       <c r="B586" t="n">
-        <v>139064</v>
+        <v>170155</v>
       </c>
       <c r="C586" t="s">
         <v>4038</v>
@@ -55084,7 +55084,7 @@
         <v>11500</v>
       </c>
       <c r="B587" t="n">
-        <v>139065</v>
+        <v>170156</v>
       </c>
       <c r="C587" t="s">
         <v>4045</v>
@@ -55155,7 +55155,7 @@
         <v>11500</v>
       </c>
       <c r="B588" t="n">
-        <v>139066</v>
+        <v>170157</v>
       </c>
       <c r="C588" t="s">
         <v>4054</v>
@@ -55297,7 +55297,7 @@
         <v>11500</v>
       </c>
       <c r="B590" t="n">
-        <v>139067</v>
+        <v>170158</v>
       </c>
       <c r="C590" t="s">
         <v>4073</v>
@@ -55368,7 +55368,7 @@
         <v>11500</v>
       </c>
       <c r="B591" t="n">
-        <v>139068</v>
+        <v>170159</v>
       </c>
       <c r="C591" t="s">
         <v>4081</v>
@@ -55443,7 +55443,7 @@
         <v>11500</v>
       </c>
       <c r="B592" t="n">
-        <v>139069</v>
+        <v>170160</v>
       </c>
       <c r="C592" t="s">
         <v>4090</v>
@@ -55518,7 +55518,7 @@
         <v>11500</v>
       </c>
       <c r="B593" t="n">
-        <v>139070</v>
+        <v>170161</v>
       </c>
       <c r="C593" t="s">
         <v>4099</v>
@@ -55589,7 +55589,7 @@
         <v>11500</v>
       </c>
       <c r="B594" t="n">
-        <v>139071</v>
+        <v>170162</v>
       </c>
       <c r="C594" t="s">
         <v>4106</v>
@@ -55660,7 +55660,7 @@
         <v>11500</v>
       </c>
       <c r="B595" t="n">
-        <v>139072</v>
+        <v>170163</v>
       </c>
       <c r="C595" t="s">
         <v>4112</v>
@@ -55731,7 +55731,7 @@
         <v>11500</v>
       </c>
       <c r="B596" t="n">
-        <v>139073</v>
+        <v>170164</v>
       </c>
       <c r="C596" t="s">
         <v>4119</v>
@@ -55792,7 +55792,7 @@
         <v>11500</v>
       </c>
       <c r="B597" t="n">
-        <v>139074</v>
+        <v>170165</v>
       </c>
       <c r="C597" t="s">
         <v>4127</v>
@@ -55863,7 +55863,7 @@
         <v>11500</v>
       </c>
       <c r="B598" t="n">
-        <v>139075</v>
+        <v>170166</v>
       </c>
       <c r="C598" t="s">
         <v>4135</v>
@@ -55934,7 +55934,7 @@
         <v>11500</v>
       </c>
       <c r="B599" t="n">
-        <v>139076</v>
+        <v>170167</v>
       </c>
       <c r="C599" t="s">
         <v>4142</v>
@@ -56066,7 +56066,7 @@
         <v>11500</v>
       </c>
       <c r="B601" t="n">
-        <v>139077</v>
+        <v>170168</v>
       </c>
       <c r="C601" t="s">
         <v>4157</v>
@@ -56137,7 +56137,7 @@
         <v>11500</v>
       </c>
       <c r="B602" t="n">
-        <v>139078</v>
+        <v>170169</v>
       </c>
       <c r="C602" t="s">
         <v>4165</v>
@@ -56208,7 +56208,7 @@
         <v>11500</v>
       </c>
       <c r="B603" t="n">
-        <v>139079</v>
+        <v>170170</v>
       </c>
       <c r="C603" t="s">
         <v>4173</v>
@@ -56340,7 +56340,7 @@
         <v>11500</v>
       </c>
       <c r="B605" t="n">
-        <v>139080</v>
+        <v>170171</v>
       </c>
       <c r="C605" t="s">
         <v>4186</v>
@@ -56411,7 +56411,7 @@
         <v>11500</v>
       </c>
       <c r="B606" t="n">
-        <v>139081</v>
+        <v>170172</v>
       </c>
       <c r="C606" t="s">
         <v>4193</v>
@@ -56482,7 +56482,7 @@
         <v>11500</v>
       </c>
       <c r="B607" t="n">
-        <v>139082</v>
+        <v>170173</v>
       </c>
       <c r="C607" t="s">
         <v>4200</v>
@@ -56553,7 +56553,7 @@
         <v>11500</v>
       </c>
       <c r="B608" t="n">
-        <v>139083</v>
+        <v>170174</v>
       </c>
       <c r="C608" t="s">
         <v>4207</v>
@@ -56624,7 +56624,7 @@
         <v>11500</v>
       </c>
       <c r="B609" t="n">
-        <v>139084</v>
+        <v>170175</v>
       </c>
       <c r="C609" t="s">
         <v>4214</v>
@@ -56695,7 +56695,7 @@
         <v>11500</v>
       </c>
       <c r="B610" t="n">
-        <v>139085</v>
+        <v>170176</v>
       </c>
       <c r="C610" t="s">
         <v>4222</v>
@@ -56766,7 +56766,7 @@
         <v>11500</v>
       </c>
       <c r="B611" t="n">
-        <v>139086</v>
+        <v>170177</v>
       </c>
       <c r="C611" t="s">
         <v>4229</v>
@@ -56837,7 +56837,7 @@
         <v>11500</v>
       </c>
       <c r="B612" t="n">
-        <v>139087</v>
+        <v>170178</v>
       </c>
       <c r="C612" t="s">
         <v>4237</v>
@@ -56908,7 +56908,7 @@
         <v>11500</v>
       </c>
       <c r="B613" t="n">
-        <v>139088</v>
+        <v>170179</v>
       </c>
       <c r="C613" t="s">
         <v>4245</v>
@@ -56965,7 +56965,7 @@
         <v>11500</v>
       </c>
       <c r="B614" t="n">
-        <v>139089</v>
+        <v>170180</v>
       </c>
       <c r="C614" t="s">
         <v>4251</v>
@@ -57105,7 +57105,7 @@
         <v>11500</v>
       </c>
       <c r="B616" t="n">
-        <v>139090</v>
+        <v>170181</v>
       </c>
       <c r="C616" t="s">
         <v>4264</v>
@@ -57174,7 +57174,7 @@
         <v>11500</v>
       </c>
       <c r="B617" t="n">
-        <v>139091</v>
+        <v>170182</v>
       </c>
       <c r="C617" t="s">
         <v>4272</v>
@@ -57245,7 +57245,7 @@
         <v>11500</v>
       </c>
       <c r="B618" t="n">
-        <v>139092</v>
+        <v>170183</v>
       </c>
       <c r="C618" t="s">
         <v>4278</v>
@@ -57316,7 +57316,7 @@
         <v>11500</v>
       </c>
       <c r="B619" t="n">
-        <v>139093</v>
+        <v>170184</v>
       </c>
       <c r="C619" t="s">
         <v>4285</v>
@@ -57373,7 +57373,7 @@
         <v>11500</v>
       </c>
       <c r="B620" t="n">
-        <v>139094</v>
+        <v>170185</v>
       </c>
       <c r="C620" t="s">
         <v>4292</v>
@@ -57444,7 +57444,7 @@
         <v>11500</v>
       </c>
       <c r="B621" t="n">
-        <v>139095</v>
+        <v>170186</v>
       </c>
       <c r="C621" t="s">
         <v>4300</v>
@@ -57515,7 +57515,7 @@
         <v>11500</v>
       </c>
       <c r="B622" t="n">
-        <v>139096</v>
+        <v>170187</v>
       </c>
       <c r="C622" t="s">
         <v>4308</v>
@@ -57586,7 +57586,7 @@
         <v>11500</v>
       </c>
       <c r="B623" t="n">
-        <v>139097</v>
+        <v>170188</v>
       </c>
       <c r="C623" t="s">
         <v>4315</v>
@@ -57657,7 +57657,7 @@
         <v>11500</v>
       </c>
       <c r="B624" t="n">
-        <v>139098</v>
+        <v>170189</v>
       </c>
       <c r="C624" t="s">
         <v>4322</v>
@@ -57728,7 +57728,7 @@
         <v>11500</v>
       </c>
       <c r="B625" t="n">
-        <v>139099</v>
+        <v>170190</v>
       </c>
       <c r="C625" t="s">
         <v>4329</v>
@@ -57785,7 +57785,7 @@
         <v>11500</v>
       </c>
       <c r="B626" t="n">
-        <v>139100</v>
+        <v>170191</v>
       </c>
       <c r="C626" t="s">
         <v>4334</v>
@@ -57856,7 +57856,7 @@
         <v>11500</v>
       </c>
       <c r="B627" t="n">
-        <v>139101</v>
+        <v>170192</v>
       </c>
       <c r="C627" t="s">
         <v>4342</v>
@@ -57913,7 +57913,7 @@
         <v>11500</v>
       </c>
       <c r="B628" t="n">
-        <v>139102</v>
+        <v>170193</v>
       </c>
       <c r="C628" t="s">
         <v>4349</v>
@@ -58051,7 +58051,7 @@
         <v>11500</v>
       </c>
       <c r="B630" t="n">
-        <v>139103</v>
+        <v>170194</v>
       </c>
       <c r="C630" t="s">
         <v>4361</v>
@@ -58120,7 +58120,7 @@
         <v>11500</v>
       </c>
       <c r="B631" t="n">
-        <v>139104</v>
+        <v>170195</v>
       </c>
       <c r="C631" t="s">
         <v>4369</v>
@@ -58191,7 +58191,7 @@
         <v>11500</v>
       </c>
       <c r="B632" t="n">
-        <v>139105</v>
+        <v>170196</v>
       </c>
       <c r="C632" t="s">
         <v>4375</v>
